--- a/Channel_crosstalk.xlsx
+++ b/Channel_crosstalk.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pwilmart/Box Sync/Github_misc/meetings_presentations/TMT_channel_cross_talk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E879B51F-3F2D-7F49-84B5-6BC1EE65A9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29AA23C6-2EF4-2648-9A98-E5EEC94E9819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5860" yWindow="1220" windowWidth="43500" windowHeight="25300" activeTab="1" xr2:uid="{A9539795-6B07-D548-A2ED-7E776BC4A3B1}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="31860" windowHeight="28300" activeTab="2" xr2:uid="{A9539795-6B07-D548-A2ED-7E776BC4A3B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Relative_abundances" sheetId="1" r:id="rId1"/>
     <sheet name="With-charts" sheetId="2" r:id="rId2"/>
+    <sheet name="Tag-with-crosstalk" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="117">
   <si>
     <t>Tag</t>
   </si>
@@ -381,6 +382,12 @@
   </si>
   <si>
     <t>H</t>
+  </si>
+  <si>
+    <t>Reporter ion relative intensities with cross talk contributions</t>
+  </si>
+  <si>
+    <t>Each row is the isotopic distribution estimate for that tag; each column is the data for the stacked bar plot</t>
   </si>
 </sst>
 </file>
@@ -391,7 +398,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -403,6 +410,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -632,10 +647,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -684,8 +700,13 @@
     <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1461,6 +1482,2310 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1"/>
+              <a:t>Reporter Ion Releative Intensities with Cross Talk</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tag-with-crosstalk'!$D$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>126C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tag-with-crosstalk'!$E$25:$V$25</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>126C</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>127N</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128N</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128C</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>129N</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>129C</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>130N</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>130C</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>131N</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>131C</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>132N</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>132C</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>133N</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>133C</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>134N</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>134C</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>135N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tag-with-crosstalk'!$E$26:$V$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CB19-634E-A4D9-D5609923ABCC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tag-with-crosstalk'!$D$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>127N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tag-with-crosstalk'!$E$25:$V$25</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>126C</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>127N</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128N</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128C</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>129N</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>129C</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>130N</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>130C</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>131N</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>131C</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>132N</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>132C</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>133N</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>133C</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>134N</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>134C</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>135N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tag-with-crosstalk'!$E$27:$V$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CB19-634E-A4D9-D5609923ABCC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tag-with-crosstalk'!$D$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>127C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tag-with-crosstalk'!$E$25:$V$25</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>126C</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>127N</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128N</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128C</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>129N</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>129C</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>130N</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>130C</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>131N</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>131C</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>132N</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>132C</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>133N</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>133C</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>134N</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>134C</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>135N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tag-with-crosstalk'!$E$28:$V$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CB19-634E-A4D9-D5609923ABCC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tag-with-crosstalk'!$D$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tag-with-crosstalk'!$E$25:$V$25</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>126C</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>127N</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128N</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128C</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>129N</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>129C</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>130N</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>130C</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>131N</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>131C</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>132N</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>132C</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>133N</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>133C</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>134N</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>134C</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>135N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tag-with-crosstalk'!$E$29:$V$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CB19-634E-A4D9-D5609923ABCC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tag-with-crosstalk'!$D$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tag-with-crosstalk'!$E$25:$V$25</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>126C</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>127N</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128N</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128C</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>129N</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>129C</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>130N</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>130C</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>131N</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>131C</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>132N</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>132C</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>133N</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>133C</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>134N</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>134C</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>135N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tag-with-crosstalk'!$E$30:$V$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-CB19-634E-A4D9-D5609923ABCC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tag-with-crosstalk'!$D$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>129N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tag-with-crosstalk'!$E$25:$V$25</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>126C</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>127N</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128N</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128C</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>129N</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>129C</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>130N</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>130C</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>131N</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>131C</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>132N</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>132C</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>133N</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>133C</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>134N</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>134C</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>135N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tag-with-crosstalk'!$E$31:$V$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-CB19-634E-A4D9-D5609923ABCC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tag-with-crosstalk'!$D$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>129C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tag-with-crosstalk'!$E$25:$V$25</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>126C</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>127N</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128N</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128C</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>129N</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>129C</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>130N</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>130C</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>131N</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>131C</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>132N</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>132C</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>133N</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>133C</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>134N</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>134C</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>135N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tag-with-crosstalk'!$E$32:$V$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-CB19-634E-A4D9-D5609923ABCC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tag-with-crosstalk'!$D$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>130N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tag-with-crosstalk'!$E$25:$V$25</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>126C</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>127N</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128N</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128C</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>129N</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>129C</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>130N</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>130C</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>131N</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>131C</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>132N</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>132C</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>133N</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>133C</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>134N</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>134C</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>135N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tag-with-crosstalk'!$E$33:$V$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-CB19-634E-A4D9-D5609923ABCC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tag-with-crosstalk'!$D$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>130C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tag-with-crosstalk'!$E$25:$V$25</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>126C</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>127N</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128N</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128C</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>129N</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>129C</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>130N</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>130C</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>131N</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>131C</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>132N</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>132C</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>133N</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>133C</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>134N</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>134C</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>135N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tag-with-crosstalk'!$E$34:$V$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-CB19-634E-A4D9-D5609923ABCC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tag-with-crosstalk'!$D$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>131N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tag-with-crosstalk'!$E$25:$V$25</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>126C</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>127N</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128N</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128C</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>129N</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>129C</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>130N</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>130C</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>131N</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>131C</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>132N</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>132C</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>133N</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>133C</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>134N</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>134C</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>135N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tag-with-crosstalk'!$E$35:$V$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-CB19-634E-A4D9-D5609923ABCC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tag-with-crosstalk'!$D$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>131C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tag-with-crosstalk'!$E$25:$V$25</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>126C</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>127N</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128N</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128C</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>129N</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>129C</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>130N</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>130C</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>131N</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>131C</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>132N</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>132C</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>133N</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>133C</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>134N</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>134C</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>135N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tag-with-crosstalk'!$E$36:$V$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-CB19-634E-A4D9-D5609923ABCC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tag-with-crosstalk'!$D$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>132N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tag-with-crosstalk'!$E$25:$V$25</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>126C</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>127N</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128N</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128C</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>129N</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>129C</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>130N</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>130C</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>131N</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>131C</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>132N</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>132C</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>133N</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>133C</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>134N</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>134C</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>135N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tag-with-crosstalk'!$E$37:$V$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-CB19-634E-A4D9-D5609923ABCC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tag-with-crosstalk'!$D$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>132C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tag-with-crosstalk'!$E$25:$V$25</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>126C</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>127N</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128N</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128C</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>129N</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>129C</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>130N</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>130C</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>131N</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>131C</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>132N</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>132C</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>133N</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>133C</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>134N</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>134C</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>135N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tag-with-crosstalk'!$E$38:$V$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-CB19-634E-A4D9-D5609923ABCC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tag-with-crosstalk'!$D$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>133N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tag-with-crosstalk'!$E$25:$V$25</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>126C</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>127N</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128N</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128C</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>129N</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>129C</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>130N</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>130C</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>131N</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>131C</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>132N</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>132C</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>133N</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>133C</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>134N</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>134C</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>135N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tag-with-crosstalk'!$E$39:$V$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-CB19-634E-A4D9-D5609923ABCC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tag-with-crosstalk'!$D$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>133C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tag-with-crosstalk'!$E$25:$V$25</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>126C</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>127N</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128N</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128C</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>129N</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>129C</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>130N</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>130C</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>131N</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>131C</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>132N</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>132C</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>133N</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>133C</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>134N</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>134C</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>135N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tag-with-crosstalk'!$E$40:$V$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-CB19-634E-A4D9-D5609923ABCC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tag-with-crosstalk'!$D$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>134N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tag-with-crosstalk'!$E$25:$V$25</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>126C</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>127N</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128N</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128C</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>129N</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>129C</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>130N</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>130C</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>131N</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>131C</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>132N</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>132C</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>133N</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>133C</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>134N</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>134C</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>135N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tag-with-crosstalk'!$E$41:$V$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-CB19-634E-A4D9-D5609923ABCC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tag-with-crosstalk'!$D$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>134C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tag-with-crosstalk'!$E$25:$V$25</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>126C</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>127N</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128N</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128C</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>129N</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>129C</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>130N</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>130C</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>131N</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>131C</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>132N</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>132C</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>133N</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>133C</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>134N</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>134C</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>135N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tag-with-crosstalk'!$E$42:$V$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-CB19-634E-A4D9-D5609923ABCC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tag-with-crosstalk'!$D$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>135N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tag-with-crosstalk'!$E$25:$V$25</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>126C</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>127N</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128N</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128C</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>129N</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>129C</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>130N</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>130C</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>131N</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>131C</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>132N</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>132C</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>133N</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>133C</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>134N</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>134C</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>135N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tag-with-crosstalk'!$E$43:$V$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-CB19-634E-A4D9-D5609923ABCC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1871040672"/>
+        <c:axId val="1871249648"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1871040672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1871249648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1871249648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1871040672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1502,6 +3827,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2547,6 +4912,511 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2616,6 +5486,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19C57AEC-9BF9-FCFD-AF17-240BC7234C40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2924,7 +5835,7 @@
   <dimension ref="A1:S85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O43" sqref="O43"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2940,7 +5851,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="51" t="s">
         <v>82</v>
       </c>
     </row>
@@ -5135,6 +8046,9 @@
       <c r="N85" s="26"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{12EB8B98-5BD5-0D4A-9DF3-A68BE531C3F1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5143,8 +8057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D7A485-B0A2-A94B-B096-102710201E50}">
   <dimension ref="A1:S85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W41" sqref="W41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7104,4 +10018,574 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF748D9-B02C-1C4C-9A34-BB92B4DE56C2}">
+  <dimension ref="A1:V43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T51" sqref="T51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="29"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A17" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A19" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A21" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D24" s="29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D25" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L25" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="M25" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="N25" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="O25" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="P25" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q25" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="R25" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="S25" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="T25" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="U25" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="V25" s="29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D26" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>100</v>
+      </c>
+      <c r="G26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D27" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>100</v>
+      </c>
+      <c r="H27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D28" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>100</v>
+      </c>
+      <c r="I28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D29" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>100</v>
+      </c>
+      <c r="J29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D30" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>100</v>
+      </c>
+      <c r="K30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D31" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>100</v>
+      </c>
+      <c r="L31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D32" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="I32">
+        <v>3</v>
+      </c>
+      <c r="K32">
+        <v>100</v>
+      </c>
+      <c r="M32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D33" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>100</v>
+      </c>
+      <c r="N33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D34" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34">
+        <v>4</v>
+      </c>
+      <c r="M34">
+        <v>100</v>
+      </c>
+      <c r="O34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D35" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="L35">
+        <v>4</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>100</v>
+      </c>
+      <c r="P35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D36" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="M36">
+        <v>5</v>
+      </c>
+      <c r="O36">
+        <v>100</v>
+      </c>
+      <c r="Q36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D37" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="N37">
+        <v>5</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <v>100</v>
+      </c>
+      <c r="R37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D38" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="O38">
+        <v>6</v>
+      </c>
+      <c r="Q38">
+        <v>100</v>
+      </c>
+      <c r="S38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D39" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="P39">
+        <v>6</v>
+      </c>
+      <c r="Q39">
+        <v>1</v>
+      </c>
+      <c r="R39">
+        <v>100</v>
+      </c>
+      <c r="T39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D40" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q40">
+        <v>7</v>
+      </c>
+      <c r="S40">
+        <v>100</v>
+      </c>
+      <c r="U40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D41" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="R41">
+        <v>7</v>
+      </c>
+      <c r="S41">
+        <v>1</v>
+      </c>
+      <c r="T41">
+        <v>100</v>
+      </c>
+      <c r="V41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D42" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="S42">
+        <v>8</v>
+      </c>
+      <c r="U42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D43" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="T43">
+        <v>8</v>
+      </c>
+      <c r="U43">
+        <v>1</v>
+      </c>
+      <c r="V43">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Channel_crosstalk.xlsx
+++ b/Channel_crosstalk.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pwilmart/Box Sync/Github_misc/meetings_presentations/TMT_channel_cross_talk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29AA23C6-2EF4-2648-9A98-E5EEC94E9819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B0B137-6237-FB41-9E00-F118F183F345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="500" windowWidth="31860" windowHeight="28300" activeTab="2" xr2:uid="{A9539795-6B07-D548-A2ED-7E776BC4A3B1}"/>
   </bookViews>
@@ -1517,7 +1517,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2000" b="1"/>
-              <a:t>Reporter Ion Releative Intensities with Cross Talk</a:t>
+              <a:t>Reporter Ion Relative Intensities with Cross Talk</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -10025,7 +10025,7 @@
   <dimension ref="A1:V43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T51" sqref="T51"/>
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
